--- a/PSP2-Program4/psp-forms/Size Estimating Template.xlsx
+++ b/PSP2-Program4/psp-forms/Size Estimating Template.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="excel" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel" localSheetId="0">excel!$A$1:$L$48</definedName>
+    <definedName name="excel__1" localSheetId="0">'excel (1)'!$A$1:$L$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="D:\afmap\Descargas\excel.iqy" name="excel" type="4" refreshedVersion="5" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fpsp2%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
+  <connection id="1" odcFile="D:\afmap\Descargas\excel (1).iqy" name="excel (1)" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fpsp2%2Fsizeest%2Eclass%3Frefresh%3D747&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>/Non Project/PSP Fundamentals &amp; Advanced/Program 4</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>REUSED PARTS</t>
-  </si>
-  <si>
-    <t>FileReader</t>
   </si>
   <si>
     <t>add more rows for reused parts...</t>
@@ -1242,7 +1239,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1850,28 +1847,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>30</v>
-      </c>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="6">
@@ -1880,7 +1877,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="19" t="s">
@@ -1896,7 +1893,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="6">
@@ -1905,7 +1902,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1917,15 +1914,15 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="6">
@@ -1936,10 +1933,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="6">
@@ -1950,7 +1947,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -1962,38 +1959,38 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="8"/>
       <c r="D32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="6">
@@ -2006,10 +2003,10 @@
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="6">
@@ -2022,10 +2019,10 @@
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="6">
@@ -2036,24 +2033,24 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="6">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="6">
@@ -2064,10 +2061,10 @@
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="6"/>
@@ -2078,64 +2075,64 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,7 +2146,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
